--- a/sd-publication-030/ig/StructureDefinition-ror-measurereport.xlsx
+++ b/sd-publication-030/ig/StructureDefinition-ror-measurereport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T13:43:01+00:00</t>
+    <t>2024-03-12T15:09:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
